--- a/forwardprimer-v3_33.xlsx
+++ b/forwardprimer-v3_33.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_33" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F3073-GATCATGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCATGATGTCGTCGGCAGCGTC</t>
+    <t>F3073-AAGACGTTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACGTTGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F3074-ATCGTGGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTGGAAGTCGTCGGCAGCGTC</t>
+    <t>F3074-CCAACTAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAACTAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F3075-AGCTCTGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCTGACTTCGTCGGCAGCGTC</t>
+    <t>F3075-TGAGAGACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGAGACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F3076-GGATCCACTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATCCACTTTCGTCGGCAGCGTC</t>
+    <t>F3076-AACGTCAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F3077-TGTTGGTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTTGGTAGCTCGTCGGCAGCGTC</t>
+    <t>F3077-TGAACGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACGAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F3078-GTCTAGCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTAGCTGATCGTCGGCAGCGTC</t>
+    <t>F3078-TGAACGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACGTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F3079-GAGTCACGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCACGTATCGTCGGCAGCGTC</t>
+    <t>F3079-TCGACAAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGACAAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F3080-AGTGAAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAAGTTGTCGTCGGCAGCGTC</t>
+    <t>F3080-TCCTTCGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F3081-ACAGCATCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGCATCATTCGTCGGCAGCGTC</t>
+    <t>F3081-AGAGACTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F3082-AAGTCATCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCATCACTCGTCGGCAGCGTC</t>
+    <t>F3082-GTGTGTGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGTGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F3083-ACGATGGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGATGGTACTCGTCGGCAGCGTC</t>
+    <t>F3083-TTCACTCATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACTCATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F3084-ACTGGTCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGGTCTACTCGTCGGCAGCGTC</t>
+    <t>F3084-ACCACTACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCACTACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F3085-AACATGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACATGATCCTCGTCGGCAGCGTC</t>
+    <t>F3085-AACATCGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACATCGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F3086-TCGATGACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGATGACTGTCGTCGGCAGCGTC</t>
+    <t>F3086-ACTGCTAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGCTAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F3087-AGTGTAGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGTAGACCTCGTCGGCAGCGTC</t>
+    <t>F3087-ATGTGGACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTGGACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F3088-CCATGCTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCATGCTGATTCGTCGGCAGCGTC</t>
+    <t>F3088-ACTACTGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACTGGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F3089-CGAGTTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAGTTGAAGTCGTCGGCAGCGTC</t>
+    <t>F3089-AGGTTCCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTCCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F3090-GACAGGTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAGGTTCATCGTCGGCAGCGTC</t>
+    <t>F3090-CGATCTAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATCTAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F3091-ACTACTGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTACTGGTTTCGTCGGCAGCGTC</t>
+    <t>F3091-TAGGTTGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTTGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F3092-CATGTTGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTTGTACTCGTCGGCAGCGTC</t>
+    <t>F3092-ATGCTGAACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTGAACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F3093-CTAGCAGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCAGTACTCGTCGGCAGCGTC</t>
+    <t>F3093-TCGTGCAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGCAACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F3094-AACAGAACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGAACCTTCGTCGGCAGCGTC</t>
+    <t>F3094-AGAGTGCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTGCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F3095-AGCACTTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCACTTGCTTCGTCGGCAGCGTC</t>
+    <t>F3095-AAGAAGTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAAGTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F3096-TAGTTGTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTTGTGAGTCGTCGGCAGCGTC</t>
+    <t>F3096-CGATCAACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATCAACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F3097-GGATCCTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATCCTGATTCGTCGGCAGCGTC</t>
+    <t>F3097-GACTGTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTGTCCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F3098-ACCTAGGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGGAACTCGTCGGCAGCGTC</t>
+    <t>F3098-AACTGAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGAGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F3099-CTTCATCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCATCTACTCGTCGGCAGCGTC</t>
+    <t>F3099-ACCTGCTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTGCTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F3100-TCTAGCATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGCATGGTCGTCGGCAGCGTC</t>
+    <t>F3100-GTTCGAGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGAGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F3101-TAGTGCTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGCTCACTCGTCGGCAGCGTC</t>
+    <t>F3101-ACAACCAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACCAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F3102-GTCAAGTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCAAGTGTGTCGTCGGCAGCGTC</t>
+    <t>F3102-TACTCAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACTCAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F3103-GATCAACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCAACATCTCGTCGGCAGCGTC</t>
+    <t>F3103-GATCTAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTAGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F3104-GACTCCTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTCCTTGTTCGTCGGCAGCGTC</t>
+    <t>F3104-CTTGGTCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGTCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F3105-AGACTACATC</t>
+    <t>F3105-AACTCGTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCGTGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F3106-GTCACAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACAGTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F3107-CTGCATCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGCATCCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F3108-ATGTCTCACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTCTCACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F3109-TCCTTGTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTGTAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F3110-TTGTACCACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTACCACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F3111-ATGTCGAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTCGAGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F3112-AGTTCTTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCTTCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F3113-TGACAAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACAAGGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F3114-TTCCAGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAGACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F3115-CACAACGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACAACGATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F3116-GCTCGAACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCGAACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F3117-ACTCTAGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCTAGACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F3118-CTAGCACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCACCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F3119-AACTGTGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGTGATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F3120-GTGGACACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGGACACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F3121-CACTCCAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTCCAACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F3122-AACAAGTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGTCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3123-GCTAGTTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGTTGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F3124-GTAGTACGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTACGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F3125-ACGTACATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTACATCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F3126-ACAGGATGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGGATGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F3127-GACCTGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACCTGATGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F3128-CAAGCAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCAGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F3129-CATCAGTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCAGTGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F3130-TTCCTCACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTCACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F3131-AGAGTCGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCGTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F3132-TGTAGTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGTCCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F3133-TGTTCACCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCACCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3134-GCAACCTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAACCTGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F3135-TCCAGAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGAGAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F3136-TTCCACCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCACCTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F3137-ATGCTCAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCTCAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F3138-AACAGACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGACACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F3139-AGACAGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACAGACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F3140-GTGTTCCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTTCCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F3141-CAGACCTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGACCTTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F3142-TGGTACGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTACGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F3143-AGGTGTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGTCAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F3144-TAGGTTGTGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTTGTGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F3145-GGTGTTGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGTTGTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F3146-TCCTGTCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGTCTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F3147-TCCTACGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTACGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F3148-CATCTCAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCTCAACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F3149-GGATCCTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATCCTAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F3150-CTGACACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGACACGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F3151-TGGTGGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGGAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F3152-TTGGAACCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAACCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F3153-TCATCACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCACTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F3154-CGTTGAGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGAGATGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F3155-AGACTACATC</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACAGACTACATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F3106-GAACGATCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGATCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F3107-TTGTCAGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCAGCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F3108-TGAGTGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTGAAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F3109-TTCCTGCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTGCTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F3110-TAGACCAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACCAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F3111-GAACCATCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCATCGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F3112-AGTCGAAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGAAGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F3113-AGGTAGTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTAGTTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F3114-AACTGTCCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGTCCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F3115-GGAACGTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAACGTACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F3116-GAGCTTGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGCTTGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F3117-AAGTTGCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTGCTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F3118-AAGAACGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACGTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F3119-CGATCATGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATCATGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F3120-TAGCATCTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCATCTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F3121-TTCGACAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGACAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F3122-ACATGTAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGTAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F3123-TGAAGATGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGATGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F3124-ATCTTGCACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTTGCACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F3125-ACCAGCTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAGCTACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F3126-TCAACTTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F3127-ACGTGTTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTGTTGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F3128-TCCTTCAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTCAGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F3129-GAGAGAACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGAACTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F3130-ATCGTTGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTTGCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F3131-AAGAGGAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGGAACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F3132-ACAACTGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACTGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F3133-CTTCGAACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGAACGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3134-CGTGTACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTACATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F3135-TCACTTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTTCAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F3136-CTCGATGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGATGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F3137-AACTCTCACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTCACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F3138-CATCCTTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCCTTGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F3139-GCTCGTTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCGTTCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F3140-TTGAAGTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAAGTCCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F3141-ACGTCATCGT</t>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F3156-TAGCAGCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAGCTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F3157-CATCACATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCACATCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F3158-ACGTCATCGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACACGTCATCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F3142-TACTACTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTACTCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F3143-TCCAGGTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGGTCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F3144-CTACCAAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACCAAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F3145-ACGAGCTGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAGCTGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F3146-CTCGTTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGTTCCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F3147-TCTGCTAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCTAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F3148-TTGAGACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGACCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F3149-TAGCAGTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAGTGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F3150-GAGTGTAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGTAGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F3151-AGCTCACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCACATGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F3152-TTGTGAGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTGAGGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F3153-GTGTAGTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTAGTTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F3154-TGGTTCTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTTCTGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F3155-GTAGAACCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAACCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F3156-TTGCAAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCAAGCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F3157-CTACCATCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACCATCGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F3158-TGGATCTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGATCTCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F3159-AGTGGAGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGGAGAGATCGTCGGCAGCGTC</t>
+    <t>F3159-TTCGACTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCGACTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F3160-CTCAACCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAACCTGATCGTCGGCAGCGTC</t>
+    <t>F3160-AGCTAGCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTAGCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F3161-TTCATCACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCATCACGATCGTCGGCAGCGTC</t>
+    <t>F3161-AAGCTCAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTCAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F3162-CTCAGGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGGATGATCGTCGGCAGCGTC</t>
+    <t>F3162-GTCACACTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACACTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F3163-TCAAGAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGAGGTTTCGTCGGCAGCGTC</t>
+    <t>F3163-ACGAGAGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAGAGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F3164-TGGTGACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGACTGATCGTCGGCAGCGTC</t>
+    <t>F3164-AAGTCAGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCAGTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F3165-TGATGTGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGATGTGCACTCGTCGGCAGCGTC</t>
+    <t>F3165-GCTCCTTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCCTTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F3166-TTCCTTCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTTCCAATCGTCGGCAGCGTC</t>
+    <t>F3166-ACGAGAAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAGAAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F3167-ACTGTGCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGTGCATCTCGTCGGCAGCGTC</t>
+    <t>F3167-GTTGCACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCACTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F3168-AGTAGGTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGGTCAGTCGTCGGCAGCGTC</t>
+    <t>F3168-CACACTGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACACTGAAGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
